--- a/data/outputs/数学期刊(下)_altmetric/68Acta Mathematica Sinica, English Series.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/68Acta Mathematica Sinica, English Series.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE146"/>
+  <dimension ref="A1:CF146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1025,6 +1030,9 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1270,6 +1278,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1513,6 +1524,9 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1756,6 +1770,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1997,6 +2014,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2246,6 +2266,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2491,6 +2514,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2748,6 +2774,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2997,6 +3026,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3246,6 +3278,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3495,6 +3530,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3744,6 +3782,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3994,6 +4035,9 @@
       </c>
       <c r="CE14" t="n">
         <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="15">
@@ -4232,6 +4276,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4479,6 +4526,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4722,6 +4772,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4971,6 +5024,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5224,6 +5280,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5465,6 +5524,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5710,6 +5772,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5963,6 +6028,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6212,6 +6280,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6461,6 +6532,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6710,6 +6784,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6967,6 +7044,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7210,6 +7290,9 @@
         <v>0</v>
       </c>
       <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7453,6 +7536,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7702,6 +7788,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7945,6 +8034,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8188,6 +8280,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8437,6 +8532,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8686,6 +8784,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8931,6 +9032,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9180,6 +9284,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9437,6 +9544,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9686,6 +9796,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9935,6 +10048,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10184,6 +10300,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10437,6 +10556,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10680,6 +10802,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10929,6 +11054,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11174,6 +11302,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11423,6 +11554,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11670,6 +11804,9 @@
         <v>0</v>
       </c>
       <c r="CE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11913,6 +12050,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12162,6 +12302,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12415,6 +12558,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12668,6 +12814,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12917,6 +13066,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13166,6 +13318,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13413,6 +13568,9 @@
         <v>0</v>
       </c>
       <c r="CE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13656,6 +13814,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13905,6 +14066,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14154,6 +14318,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14403,6 +14570,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14648,6 +14818,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14901,6 +15074,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15150,6 +15326,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15397,6 +15576,9 @@
         <v>0</v>
       </c>
       <c r="CE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15640,6 +15822,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15895,6 +16080,9 @@
         <v>0</v>
       </c>
       <c r="CE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16138,6 +16326,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16395,6 +16586,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16644,6 +16838,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16893,6 +17090,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17142,6 +17342,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17391,6 +17594,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17640,6 +17846,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17889,6 +18098,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18138,6 +18350,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18389,6 +18604,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18634,6 +18852,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18883,6 +19104,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19132,6 +19356,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19381,6 +19608,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19630,6 +19860,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19879,6 +20112,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20136,6 +20372,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20385,6 +20624,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20628,6 +20870,9 @@
         <v>0</v>
       </c>
       <c r="CE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20863,6 +21108,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21110,6 +21358,9 @@
         <v>0</v>
       </c>
       <c r="CE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21349,6 +21600,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21590,6 +21844,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21839,6 +22096,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22088,6 +22348,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22337,6 +22600,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22586,6 +22852,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22835,6 +23104,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23084,6 +23356,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23329,6 +23604,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23574,6 +23852,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23823,6 +24104,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24072,6 +24356,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24317,6 +24604,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24566,6 +24856,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24815,6 +25108,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25064,6 +25360,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25313,6 +25612,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25562,6 +25864,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25815,6 +26120,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26064,6 +26372,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26313,6 +26624,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26562,6 +26876,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26807,6 +27124,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -27056,6 +27376,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27313,6 +27636,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27562,6 +27888,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27809,6 +28138,9 @@
         <v>0</v>
       </c>
       <c r="CE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28052,6 +28384,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28303,6 +28638,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28560,6 +28898,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28809,6 +29150,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29058,6 +29402,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29307,6 +29654,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29556,6 +29906,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29805,6 +30158,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -30052,6 +30408,9 @@
         <v>0</v>
       </c>
       <c r="CE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30295,6 +30654,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30540,6 +30902,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30787,6 +31152,9 @@
         <v>0</v>
       </c>
       <c r="CE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31030,6 +31398,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31281,6 +31652,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -31530,6 +31904,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31785,6 +32162,9 @@
         <v>0</v>
       </c>
       <c r="CE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32024,6 +32404,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -32273,6 +32656,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -32522,6 +32908,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32771,6 +33160,9 @@
       <c r="CE130" t="n">
         <v>0</v>
       </c>
+      <c r="CF130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -33018,6 +33410,9 @@
         <v>0</v>
       </c>
       <c r="CE131" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33257,6 +33652,9 @@
       <c r="CE132" t="n">
         <v>0</v>
       </c>
+      <c r="CF132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -33506,6 +33904,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -33763,6 +34164,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -34018,6 +34422,9 @@
         <v>0</v>
       </c>
       <c r="CE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34257,6 +34664,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -34510,6 +34920,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34759,6 +35172,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -35008,6 +35424,9 @@
       <c r="CE139" t="n">
         <v>0</v>
       </c>
+      <c r="CF139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -35255,6 +35674,9 @@
         <v>0</v>
       </c>
       <c r="CE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35494,6 +35916,9 @@
       <c r="CE141" t="n">
         <v>0</v>
       </c>
+      <c r="CF141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -35743,6 +36168,9 @@
       <c r="CE142" t="n">
         <v>0</v>
       </c>
+      <c r="CF142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -35992,6 +36420,9 @@
       <c r="CE143" t="n">
         <v>0</v>
       </c>
+      <c r="CF143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -36241,6 +36672,9 @@
       <c r="CE144" t="n">
         <v>0</v>
       </c>
+      <c r="CF144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -36488,6 +36922,9 @@
         <v>0</v>
       </c>
       <c r="CE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36731,6 +37168,9 @@
       <c r="CE146" t="n">
         <v>0</v>
       </c>
+      <c r="CF146" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
